--- a/data_excel/865.xlsx
+++ b/data_excel/865.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>菜園</t>
   </si>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +517,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="C8 G1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,7 +693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -700,15 +704,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/865.xlsx
+++ b/data_excel/865.xlsx
@@ -120,9 +120,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -135,6 +132,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +518,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -708,16 +709,16 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
